--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>903864.5327361432</v>
+        <v>984319.3490968301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250048</v>
+        <v>680573.5606250053</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6098562.864718846</v>
+        <v>6098562.864718845</v>
       </c>
     </row>
     <row r="11">
@@ -658,65 +658,65 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.79900896488251</v>
+        <v>116.325098768111</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>88.19812805758556</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>100.9332433248028</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023555</v>
+        <v>127.0354994972996</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>38.19053515138899</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>34.22376575164125</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>125.7661755467486</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13.46550985000071</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.884372849250084</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>115.9259085885677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20.75911149906585</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>78.05631404508512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>16.54234080278146</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20.75911149906594</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>51.22321639116697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>90.79698051280882</v>
       </c>
       <c r="T18" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="U20" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>90.6347739746935</v>
+        <v>8.96033232796419</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.69723130130874</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>7.20336768251915</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>153.8803690926115</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.850248929521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>102.0777889414079</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S24" t="n">
         <v>162.3842949358346</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>2.131054067289349</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>77.76921961726885</v>
       </c>
       <c r="U25" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>335.7038898066334</v>
       </c>
       <c r="H26" t="n">
-        <v>137.9293087264389</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>130.6251284014653</v>
+        <v>153.9766041548466</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.1468615877626</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>10.11252145735899</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>166.670940136553</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.7654922607986</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>35.50761833781735</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>98.59068392571692</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.08379180237828</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
         <v>198.1468615877626</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1120657380426</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>38.10545013783744</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,10 +3079,10 @@
         <v>91.0942270148646</v>
       </c>
       <c r="S32" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2707998041555</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>47.82563313948041</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>26.3961489538806</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.1267126692333</v>
       </c>
       <c r="T33" t="n">
         <v>198.1468615877626</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>20.99745290177782</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2707998041555</v>
+        <v>107.3824123002077</v>
       </c>
       <c r="V35" t="n">
-        <v>95.64142857238629</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>127.8670135271049</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I36" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>33.22240592296204</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1120657380427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.95272130244668</v>
       </c>
       <c r="U38" t="n">
-        <v>89.76406496021549</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>106.7237100857209</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71888214121615</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
         <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>226.8147786768245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>221.25656530496</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.6986308346051</v>
+        <v>121.6095505855418</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>23.70793863112362</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>87.12297943181184</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>17.82860505273974</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>236.2648191880775</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>154.2750838829069</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>63.5896136689658</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.15036375515501</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>162.3842949358346</v>
@@ -4112,7 +4112,7 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>29.07140453382112</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V46" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>166.670940136553</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>933.9571464551993</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4524,7 +4524,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4606,13 +4606,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>701.5507927213197</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>466.398684489577</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>222.9499078454769</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>222.9499078454769</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>419.2021945682071</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V9" t="n">
-        <v>761.8705608694022</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W9" t="n">
-        <v>761.8705608694022</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X9" t="n">
-        <v>761.8705608694022</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1066.049756676706</v>
+        <v>429.3571808938199</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.049756676706</v>
+        <v>429.3571808938199</v>
       </c>
       <c r="D11" t="n">
-        <v>1066.049756676706</v>
+        <v>429.3571808938199</v>
       </c>
       <c r="E11" t="n">
-        <v>787.1037832399832</v>
+        <v>150.4112074570971</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>150.4112074570971</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032605</v>
+        <v>150.4112074570971</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>1066.049756676706</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T11" t="n">
-        <v>1066.049756676706</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U11" t="n">
-        <v>1066.049756676706</v>
+        <v>708.3031543305426</v>
       </c>
       <c r="V11" t="n">
-        <v>1066.049756676706</v>
+        <v>708.3031543305426</v>
       </c>
       <c r="W11" t="n">
-        <v>1066.049756676706</v>
+        <v>708.3031543305426</v>
       </c>
       <c r="X11" t="n">
-        <v>1066.049756676706</v>
+        <v>708.3031543305426</v>
       </c>
       <c r="Y11" t="n">
-        <v>1066.049756676706</v>
+        <v>708.3031543305426</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205.5963911126329</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="C12" t="n">
-        <v>205.5963911126329</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="D12" t="n">
-        <v>56.66198145138162</v>
+        <v>319.9847118730978</v>
       </c>
       <c r="E12" t="n">
-        <v>56.66198145138162</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G12" t="n">
         <v>22.09252109618844</v>
@@ -5129,13 +5129,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>641.2451212288496</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5150,22 +5150,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>902.7461548375312</v>
+        <v>977.5895138531102</v>
       </c>
       <c r="U12" t="n">
-        <v>902.7461548375312</v>
+        <v>977.5895138531102</v>
       </c>
       <c r="V12" t="n">
-        <v>667.5940466057884</v>
+        <v>742.4374056213675</v>
       </c>
       <c r="W12" t="n">
-        <v>413.3566898775868</v>
+        <v>488.2000488931658</v>
       </c>
       <c r="X12" t="n">
-        <v>413.3566898775868</v>
+        <v>488.2000488931658</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5963911126329</v>
+        <v>488.2000488931658</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H13" t="n">
         <v>22.09252109618844</v>
@@ -5226,25 +5226,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.0384945329112</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0384945329112</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="D14" t="n">
-        <v>22.09252109618844</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618844</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09252109618844</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618844</v>
+        <v>139.189398458378</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>139.189398458378</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412866</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901061</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5302,28 +5302,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1083.657255315416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>1083.657255315416</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T14" t="n">
-        <v>858.9304414063566</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U14" t="n">
-        <v>858.9304414063566</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="V14" t="n">
-        <v>858.9304414063566</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="W14" t="n">
-        <v>858.9304414063566</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="X14" t="n">
-        <v>579.9844679696339</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0384945329112</v>
+        <v>418.1353718951007</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>526.6793176119304</v>
+        <v>667.9614081714619</v>
       </c>
       <c r="C15" t="n">
-        <v>352.2262883308034</v>
+        <v>493.5083788903349</v>
       </c>
       <c r="D15" t="n">
-        <v>352.2262883308034</v>
+        <v>344.5739692290837</v>
       </c>
       <c r="E15" t="n">
-        <v>273.3815266691013</v>
+        <v>185.3365142236282</v>
       </c>
       <c r="F15" t="n">
-        <v>273.3815266691013</v>
+        <v>38.80195625051314</v>
       </c>
       <c r="G15" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318536</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K15" t="n">
-        <v>28.39914141318536</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L15" t="n">
-        <v>28.39914141318536</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M15" t="n">
-        <v>301.7940899785173</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P15" t="n">
         <v>1025.71200399185</v>
@@ -5381,28 +5381,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T15" t="n">
-        <v>902.7461548375312</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U15" t="n">
-        <v>902.7461548375312</v>
+        <v>836.17674519153</v>
       </c>
       <c r="V15" t="n">
-        <v>902.7461548375312</v>
+        <v>836.17674519153</v>
       </c>
       <c r="W15" t="n">
-        <v>902.7461548375312</v>
+        <v>836.17674519153</v>
       </c>
       <c r="X15" t="n">
-        <v>694.8946546319984</v>
+        <v>836.17674519153</v>
       </c>
       <c r="Y15" t="n">
-        <v>694.8946546319984</v>
+        <v>836.17674519153</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
         <v>58.70189726492715</v>
@@ -5463,25 +5463,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0072940269172</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="C17" t="n">
-        <v>43.06132059019444</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="D17" t="n">
-        <v>43.06132059019444</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="E17" t="n">
-        <v>22.09252109618844</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="F17" t="n">
-        <v>22.09252109618844</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T17" t="n">
-        <v>879.8992409003627</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U17" t="n">
-        <v>879.8992409003627</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V17" t="n">
-        <v>879.8992409003627</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="W17" t="n">
-        <v>879.8992409003627</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="X17" t="n">
-        <v>879.8992409003627</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="Y17" t="n">
-        <v>600.9532674636399</v>
+        <v>458.5034879835596</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>248.2861729946558</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="C18" t="n">
-        <v>73.83314371352881</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="D18" t="n">
-        <v>73.83314371352881</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618844</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618844</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
-        <v>45.1838775027733</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L18" t="n">
-        <v>291.3393440954743</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M18" t="n">
-        <v>564.7342926608062</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N18" t="n">
-        <v>838.1292412261381</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P18" t="n">
         <v>1104.626054809422</v>
@@ -5621,25 +5621,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>932.6220420606005</v>
+        <v>1012.911933079312</v>
       </c>
       <c r="T18" t="n">
-        <v>730.7421420887098</v>
+        <v>811.0320331074211</v>
       </c>
       <c r="U18" t="n">
-        <v>502.5235297228575</v>
+        <v>811.0320331074211</v>
       </c>
       <c r="V18" t="n">
-        <v>502.5235297228575</v>
+        <v>575.8799248756784</v>
       </c>
       <c r="W18" t="n">
-        <v>248.2861729946558</v>
+        <v>575.8799248756784</v>
       </c>
       <c r="X18" t="n">
-        <v>248.2861729946558</v>
+        <v>575.8799248756784</v>
       </c>
       <c r="Y18" t="n">
-        <v>248.2861729946558</v>
+        <v>575.8799248756784</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N19" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F20" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618845</v>
       </c>
       <c r="K20" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M20" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="U20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X20" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y20" t="n">
-        <v>579.9844679696339</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618844</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L21" t="n">
-        <v>94.45522409818579</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M21" t="n">
-        <v>367.8501726635177</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2451212288496</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121334</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P21" t="n">
         <v>1104.626054809422</v>
@@ -5858,25 +5858,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>932.6220420606005</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U21" t="n">
-        <v>841.0717653184859</v>
+        <v>893.6953141022136</v>
       </c>
       <c r="V21" t="n">
-        <v>605.9196570867432</v>
+        <v>658.543205870471</v>
       </c>
       <c r="W21" t="n">
-        <v>605.9196570867432</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="X21" t="n">
-        <v>398.0681568812104</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.3078581162565</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C22" t="n">
-        <v>170.0056146785816</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D22" t="n">
-        <v>170.0056146785816</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N22" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>870.0063513451025</v>
+        <v>1025.441067600266</v>
       </c>
       <c r="C23" t="n">
-        <v>870.0063513451025</v>
+        <v>1025.441067600266</v>
       </c>
       <c r="D23" t="n">
-        <v>870.0063513451025</v>
+        <v>1025.441067600266</v>
       </c>
       <c r="E23" t="n">
-        <v>870.0063513451025</v>
+        <v>1025.441067600266</v>
       </c>
       <c r="F23" t="n">
-        <v>459.0204465554949</v>
+        <v>614.4551628106581</v>
       </c>
       <c r="G23" t="n">
-        <v>40.46784683920975</v>
+        <v>195.9025630943729</v>
       </c>
       <c r="H23" t="n">
-        <v>40.46784683920975</v>
+        <v>195.9025630943729</v>
       </c>
       <c r="I23" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J23" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
         <v>328.101962600968</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300136</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M23" t="n">
         <v>1033.983090059323</v>
@@ -6022,19 +6022,19 @@
         <v>1802.180239640199</v>
       </c>
       <c r="U23" t="n">
-        <v>1548.371350949133</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="V23" t="n">
-        <v>1548.371350949133</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="W23" t="n">
-        <v>1548.371350949133</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="X23" t="n">
-        <v>1174.905592688053</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="Y23" t="n">
-        <v>870.0063513451025</v>
+        <v>1412.040907664387</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>778.1126197432169</v>
+        <v>456.2548981795964</v>
       </c>
       <c r="C24" t="n">
-        <v>603.6595904620899</v>
+        <v>281.8018688984694</v>
       </c>
       <c r="D24" t="n">
-        <v>454.7251808008386</v>
+        <v>281.8018688984694</v>
       </c>
       <c r="E24" t="n">
-        <v>295.4877257953831</v>
+        <v>281.8018688984694</v>
       </c>
       <c r="F24" t="n">
-        <v>148.9531678222681</v>
+        <v>281.8018688984694</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9531678222681</v>
+        <v>143.5767245578036</v>
       </c>
       <c r="H24" t="n">
         <v>40.46784683920975</v>
@@ -6068,52 +6068,52 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100976</v>
       </c>
       <c r="K24" t="n">
         <v>291.9427578142076</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4379791865879</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M24" t="n">
-        <v>773.3516022495344</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O24" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R24" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S24" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T24" t="n">
-        <v>1659.219456583117</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U24" t="n">
-        <v>1431.029106811395</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="V24" t="n">
-        <v>1195.876998579653</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W24" t="n">
-        <v>1193.724418713704</v>
+        <v>871.8666971500832</v>
       </c>
       <c r="X24" t="n">
-        <v>985.8729185081709</v>
+        <v>664.0151969445503</v>
       </c>
       <c r="Y24" t="n">
-        <v>778.1126197432169</v>
+        <v>456.2548981795964</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="C25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="D25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="E25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="F25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="G25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="H25" t="n">
         <v>40.46784683920975</v>
@@ -6162,37 +6162,37 @@
         <v>367.3809329804118</v>
       </c>
       <c r="O25" t="n">
-        <v>450.4505890207823</v>
+        <v>450.4505890207822</v>
       </c>
       <c r="P25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Q25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="R25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="S25" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524193</v>
       </c>
       <c r="T25" t="n">
-        <v>498.0103482609705</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="U25" t="n">
-        <v>329.8850168761704</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="V25" t="n">
-        <v>329.8850168761704</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="W25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="X25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.46784683920975</v>
+        <v>200.5644120622488</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>907.0185964534819</v>
+        <v>913.9937483563222</v>
       </c>
       <c r="C26" t="n">
-        <v>538.0560795130702</v>
+        <v>913.9937483563222</v>
       </c>
       <c r="D26" t="n">
-        <v>179.7903809063197</v>
+        <v>555.7280497495717</v>
       </c>
       <c r="E26" t="n">
-        <v>179.7903809063197</v>
+        <v>555.7280497495717</v>
       </c>
       <c r="F26" t="n">
-        <v>179.7903809063197</v>
+        <v>555.7280497495717</v>
       </c>
       <c r="G26" t="n">
-        <v>179.7903809063197</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H26" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I26" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J26" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K26" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L26" t="n">
         <v>654.3560310300137</v>
@@ -6238,10 +6238,10 @@
         <v>1033.983090059323</v>
       </c>
       <c r="N26" t="n">
-        <v>1405.120914245784</v>
+        <v>1405.120914245785</v>
       </c>
       <c r="O26" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P26" t="n">
         <v>1933.252382068733</v>
@@ -6250,28 +6250,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S26" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T26" t="n">
-        <v>2023.392341960488</v>
+        <v>1520.571292317502</v>
       </c>
       <c r="U26" t="n">
-        <v>2023.392341960488</v>
+        <v>1266.762403626436</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.392341960488</v>
+        <v>1266.762403626436</v>
       </c>
       <c r="W26" t="n">
-        <v>1670.623686690373</v>
+        <v>913.9937483563222</v>
       </c>
       <c r="X26" t="n">
-        <v>1297.157928429294</v>
+        <v>913.9937483563222</v>
       </c>
       <c r="Y26" t="n">
-        <v>907.0185964534819</v>
+        <v>913.9937483563222</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>495.7998599244823</v>
+        <v>690.0523832201911</v>
       </c>
       <c r="C27" t="n">
-        <v>321.3468306433552</v>
+        <v>515.5993539390641</v>
       </c>
       <c r="D27" t="n">
-        <v>172.412420982104</v>
+        <v>515.5993539390641</v>
       </c>
       <c r="E27" t="n">
-        <v>40.46784683920975</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="F27" t="n">
-        <v>40.46784683920975</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G27" t="n">
-        <v>40.46784683920975</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H27" t="n">
-        <v>40.46784683920975</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I27" t="n">
         <v>40.46784683920975</v>
@@ -6308,49 +6308,49 @@
         <v>40.46784683920975</v>
       </c>
       <c r="K27" t="n">
-        <v>40.46784683920975</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L27" t="n">
-        <v>378.043102896468</v>
+        <v>583.4321048996658</v>
       </c>
       <c r="M27" t="n">
-        <v>823.9567259594144</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.379369154898</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O27" t="n">
-        <v>1664.052918806939</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P27" t="n">
-        <v>1941.337701236464</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R27" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S27" t="n">
-        <v>1789.594856919893</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T27" t="n">
-        <v>1589.446511881749</v>
+        <v>1823.243996922344</v>
       </c>
       <c r="U27" t="n">
-        <v>1361.256162110027</v>
+        <v>1595.053647150622</v>
       </c>
       <c r="V27" t="n">
-        <v>1126.104053878285</v>
+        <v>1359.901538918879</v>
       </c>
       <c r="W27" t="n">
-        <v>871.8666971500832</v>
+        <v>1105.664182190678</v>
       </c>
       <c r="X27" t="n">
-        <v>664.0151969445503</v>
+        <v>897.812681985145</v>
       </c>
       <c r="Y27" t="n">
-        <v>664.0151969445503</v>
+        <v>690.0523832201911</v>
       </c>
     </row>
     <row r="28">
@@ -6399,28 +6399,28 @@
         <v>367.3809329804118</v>
       </c>
       <c r="O28" t="n">
-        <v>450.4505890207823</v>
+        <v>450.4505890207822</v>
       </c>
       <c r="P28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Q28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="R28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="S28" t="n">
-        <v>279.1191793524194</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="T28" t="n">
-        <v>50.6825149779562</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="U28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.8223318256269</v>
       </c>
       <c r="V28" t="n">
-        <v>40.46784683920975</v>
+        <v>208.8223318256269</v>
       </c>
       <c r="W28" t="n">
         <v>40.46784683920975</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>582.9308610127514</v>
+        <v>1614.060302550097</v>
       </c>
       <c r="C29" t="n">
-        <v>213.9683440723397</v>
+        <v>1614.060302550097</v>
       </c>
       <c r="D29" t="n">
-        <v>213.9683440723397</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E29" t="n">
-        <v>213.9683440723397</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F29" t="n">
-        <v>213.9683440723397</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G29" t="n">
-        <v>213.9683440723397</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H29" t="n">
-        <v>213.9683440723397</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I29" t="n">
         <v>40.46784683920975</v>
@@ -6487,28 +6487,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.783394637791</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.571292317502</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U29" t="n">
-        <v>1266.762403626436</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V29" t="n">
-        <v>935.6995162828656</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W29" t="n">
-        <v>582.9308610127514</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X29" t="n">
-        <v>582.9308610127514</v>
+        <v>1649.926583699408</v>
       </c>
       <c r="Y29" t="n">
-        <v>582.9308610127514</v>
+        <v>1614.060302550097</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>620.2794385188233</v>
+        <v>526.0278428809643</v>
       </c>
       <c r="C30" t="n">
-        <v>445.8264092376963</v>
+        <v>351.5748135998373</v>
       </c>
       <c r="D30" t="n">
-        <v>346.2398598177803</v>
+        <v>351.5748135998373</v>
       </c>
       <c r="E30" t="n">
-        <v>187.0024048123248</v>
+        <v>351.5748135998373</v>
       </c>
       <c r="F30" t="n">
-        <v>40.46784683920975</v>
+        <v>205.0402556267223</v>
       </c>
       <c r="G30" t="n">
-        <v>40.46784683920975</v>
+        <v>66.81511128605649</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920975</v>
+        <v>66.81511128605649</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920975</v>
@@ -6566,28 +6566,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R30" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S30" t="n">
-        <v>1953.61939725912</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1753.471052220976</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1525.280702449254</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V30" t="n">
-        <v>1290.128594217512</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W30" t="n">
-        <v>1035.89123748931</v>
+        <v>941.639641851451</v>
       </c>
       <c r="X30" t="n">
-        <v>828.0397372837772</v>
+        <v>733.7881416459181</v>
       </c>
       <c r="Y30" t="n">
-        <v>620.2794385188233</v>
+        <v>526.0278428809643</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F31" t="n">
         <v>40.46784683920975</v>
@@ -6654,19 +6654,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U31" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V31" t="n">
-        <v>335.2708879195133</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y31" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1266.762403626436</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="C32" t="n">
-        <v>1228.272049951853</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="D32" t="n">
-        <v>870.0063513451025</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E32" t="n">
         <v>870.0063513451025</v>
@@ -6700,13 +6700,13 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J32" t="n">
-        <v>107.2572125339109</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K32" t="n">
-        <v>328.1019626009679</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L32" t="n">
-        <v>654.3560310300137</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M32" t="n">
         <v>1033.983090059323</v>
@@ -6715,7 +6715,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O32" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P32" t="n">
         <v>1933.252382068733</v>
@@ -6727,25 +6727,25 @@
         <v>1931.377971238402</v>
       </c>
       <c r="S32" t="n">
-        <v>1741.783394637791</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T32" t="n">
-        <v>1520.571292317502</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U32" t="n">
-        <v>1266.762403626436</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="V32" t="n">
-        <v>1266.762403626436</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="W32" t="n">
-        <v>1266.762403626436</v>
+        <v>1629.260362204427</v>
       </c>
       <c r="X32" t="n">
-        <v>1266.762403626436</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="Y32" t="n">
-        <v>1266.762403626436</v>
+        <v>1255.794603943347</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.837046200123</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C33" t="n">
-        <v>495.1742694790315</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D33" t="n">
-        <v>346.2398598177803</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E33" t="n">
-        <v>187.0024048123248</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F33" t="n">
         <v>40.46784683920975</v>
@@ -6782,49 +6782,49 @@
         <v>40.46784683920975</v>
       </c>
       <c r="K33" t="n">
-        <v>40.46784683920975</v>
+        <v>122.5224875632328</v>
       </c>
       <c r="L33" t="n">
-        <v>378.043102896468</v>
+        <v>460.097743620491</v>
       </c>
       <c r="M33" t="n">
-        <v>823.9567259594144</v>
+        <v>906.0113666834375</v>
       </c>
       <c r="N33" t="n">
-        <v>1297.379369154898</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O33" t="n">
-        <v>1664.052918806939</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P33" t="n">
-        <v>1941.337701236464</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q33" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>2023.392341960488</v>
+        <v>1875.713626886157</v>
       </c>
       <c r="T33" t="n">
-        <v>1823.243996922344</v>
+        <v>1675.565281848013</v>
       </c>
       <c r="U33" t="n">
-        <v>1595.053647150622</v>
+        <v>1447.374932076291</v>
       </c>
       <c r="V33" t="n">
-        <v>1359.901538918879</v>
+        <v>1212.222823844549</v>
       </c>
       <c r="W33" t="n">
-        <v>1105.664182190678</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X33" t="n">
-        <v>897.812681985145</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y33" t="n">
-        <v>690.0523832201911</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.67739522484391</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C34" t="n">
-        <v>61.67739522484391</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D34" t="n">
-        <v>61.67739522484391</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E34" t="n">
-        <v>61.67739522484391</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F34" t="n">
-        <v>61.67739522484391</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G34" t="n">
         <v>40.46784683920975</v>
@@ -6891,19 +6891,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U34" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V34" t="n">
-        <v>243.3258600550836</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W34" t="n">
-        <v>243.3258600550836</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X34" t="n">
-        <v>243.3258600550836</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y34" t="n">
-        <v>243.3258600550836</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>451.4537516288173</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="C35" t="n">
-        <v>451.4537516288173</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="D35" t="n">
-        <v>451.4537516288173</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="E35" t="n">
-        <v>451.4537516288173</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="F35" t="n">
-        <v>40.46784683920975</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G35" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H35" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I35" t="n">
         <v>40.46784683920975</v>
@@ -6970,19 +6970,19 @@
         <v>1931.377971238402</v>
       </c>
       <c r="U35" t="n">
-        <v>1677.569082547336</v>
+        <v>1822.910888106879</v>
       </c>
       <c r="V35" t="n">
-        <v>1580.961578938865</v>
+        <v>1822.910888106879</v>
       </c>
       <c r="W35" t="n">
-        <v>1228.192923668751</v>
+        <v>1822.910888106879</v>
       </c>
       <c r="X35" t="n">
-        <v>1228.192923668751</v>
+        <v>1822.910888106879</v>
       </c>
       <c r="Y35" t="n">
-        <v>838.0535916929391</v>
+        <v>1432.771556131067</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>742.516417147555</v>
+        <v>750.0273959718445</v>
       </c>
       <c r="C36" t="n">
-        <v>568.063387866428</v>
+        <v>575.5743666907175</v>
       </c>
       <c r="D36" t="n">
-        <v>419.1289782051767</v>
+        <v>446.4157671683893</v>
       </c>
       <c r="E36" t="n">
-        <v>259.8915231997212</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3569652266061</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G36" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H36" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I36" t="n">
         <v>40.46784683920975</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K36" t="n">
-        <v>291.9427578142076</v>
+        <v>122.5224875632328</v>
       </c>
       <c r="L36" t="n">
-        <v>629.5180138714659</v>
+        <v>460.097743620491</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.431636934412</v>
+        <v>906.0113666834375</v>
       </c>
       <c r="N36" t="n">
         <v>1379.434009878921</v>
@@ -7049,19 +7049,19 @@
         <v>1823.243996922344</v>
       </c>
       <c r="U36" t="n">
-        <v>1595.053647150622</v>
+        <v>1823.243996922344</v>
       </c>
       <c r="V36" t="n">
-        <v>1359.901538918879</v>
+        <v>1588.091888690601</v>
       </c>
       <c r="W36" t="n">
-        <v>1326.34355313811</v>
+        <v>1333.854531962399</v>
       </c>
       <c r="X36" t="n">
-        <v>1118.492052932577</v>
+        <v>1126.003031756866</v>
       </c>
       <c r="Y36" t="n">
-        <v>910.731754167623</v>
+        <v>918.2427329919126</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E37" t="n">
-        <v>350.0972546785774</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F37" t="n">
-        <v>203.207307180667</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G37" t="n">
         <v>40.46784683920975</v>
@@ -7128,19 +7128,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U37" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V37" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>451.4537516288173</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="C38" t="n">
-        <v>451.4537516288173</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="D38" t="n">
-        <v>451.4537516288173</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E38" t="n">
-        <v>451.4537516288173</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F38" t="n">
-        <v>40.46784683920975</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G38" t="n">
         <v>40.46784683920975</v>
@@ -7174,13 +7174,13 @@
         <v>40.46784683920975</v>
       </c>
       <c r="J38" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K38" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300136</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059323</v>
@@ -7204,22 +7204,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T38" t="n">
-        <v>2023.392341960488</v>
+        <v>2019.399694180238</v>
       </c>
       <c r="U38" t="n">
-        <v>1932.721569273401</v>
+        <v>2019.399694180238</v>
       </c>
       <c r="V38" t="n">
-        <v>1601.658681929831</v>
+        <v>2019.399694180238</v>
       </c>
       <c r="W38" t="n">
-        <v>1601.658681929831</v>
+        <v>2019.399694180238</v>
       </c>
       <c r="X38" t="n">
-        <v>1228.192923668751</v>
+        <v>1645.933935919159</v>
       </c>
       <c r="Y38" t="n">
-        <v>838.0535916929391</v>
+        <v>1255.794603943347</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>702.067328469362</v>
+        <v>777.4290261194726</v>
       </c>
       <c r="C39" t="n">
-        <v>527.614299188235</v>
+        <v>602.9759968383456</v>
       </c>
       <c r="D39" t="n">
-        <v>527.614299188235</v>
+        <v>454.0415871770944</v>
       </c>
       <c r="E39" t="n">
-        <v>368.3768441827795</v>
+        <v>294.8041321716389</v>
       </c>
       <c r="F39" t="n">
-        <v>221.8422862096645</v>
+        <v>148.2695741985238</v>
       </c>
       <c r="G39" t="n">
-        <v>221.8422862096645</v>
+        <v>148.2695741985238</v>
       </c>
       <c r="H39" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I39" t="n">
         <v>40.46784683920975</v>
@@ -7256,49 +7256,49 @@
         <v>86.55375581100978</v>
       </c>
       <c r="K39" t="n">
-        <v>291.9427578142076</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="L39" t="n">
-        <v>629.5180138714659</v>
+        <v>424.129011868268</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.431636934412</v>
+        <v>870.0426349312145</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.854280129896</v>
+        <v>1343.465278126698</v>
       </c>
       <c r="O39" t="n">
-        <v>1613.447795097059</v>
+        <v>1710.138827778739</v>
       </c>
       <c r="P39" t="n">
-        <v>1890.732577526584</v>
+        <v>1987.423610208265</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R39" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S39" t="n">
-        <v>2003.474279191582</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T39" t="n">
-        <v>2003.474279191582</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U39" t="n">
-        <v>1775.283929419861</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="V39" t="n">
-        <v>1540.131821188118</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="W39" t="n">
-        <v>1285.894464459917</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="X39" t="n">
-        <v>1078.042964254384</v>
+        <v>1153.404661904495</v>
       </c>
       <c r="Y39" t="n">
-        <v>870.28266548943</v>
+        <v>945.6443631395407</v>
       </c>
     </row>
     <row r="40">
@@ -7362,19 +7362,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T40" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="V40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="W40" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X40" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y40" t="n">
         <v>40.46784683920975</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>674.9452317348375</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="C41" t="n">
-        <v>674.9452317348375</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="D41" t="n">
-        <v>674.9452317348375</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E41" t="n">
-        <v>674.9452317348375</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F41" t="n">
-        <v>263.95932694523</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G41" t="n">
         <v>40.46784683920976</v>
@@ -7414,13 +7414,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K41" t="n">
-        <v>328.1019626009684</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L41" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M41" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N41" t="n">
         <v>1405.120914245785</v>
@@ -7429,7 +7429,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P41" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q41" t="n">
         <v>2023.392341960488</v>
@@ -7438,25 +7438,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S41" t="n">
-        <v>1833.797765359877</v>
+        <v>1900.554412076102</v>
       </c>
       <c r="T41" t="n">
-        <v>1612.585663039588</v>
+        <v>1900.554412076102</v>
       </c>
       <c r="U41" t="n">
-        <v>1358.776774348522</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="V41" t="n">
-        <v>1027.713887004952</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="W41" t="n">
-        <v>674.9452317348375</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="X41" t="n">
-        <v>674.9452317348375</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="Y41" t="n">
-        <v>674.9452317348375</v>
+        <v>1256.606191409224</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>731.8071518269695</v>
+        <v>526.0278428809645</v>
       </c>
       <c r="C42" t="n">
-        <v>557.3541225458425</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="D42" t="n">
-        <v>557.3541225458425</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="E42" t="n">
-        <v>398.116667540387</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="F42" t="n">
-        <v>251.5821095672719</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3569652266061</v>
+        <v>64.41525959792048</v>
       </c>
       <c r="H42" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I42" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J42" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K42" t="n">
-        <v>291.9427578142076</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L42" t="n">
-        <v>629.5180138714659</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.431636934412</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N42" t="n">
-        <v>1548.854280129896</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O42" t="n">
-        <v>1915.527829781937</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P42" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7523,19 +7523,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U42" t="n">
-        <v>1431.029106811396</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V42" t="n">
         <v>1195.876998579653</v>
       </c>
       <c r="W42" t="n">
-        <v>1195.876998579653</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X42" t="n">
-        <v>988.0254983741202</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y42" t="n">
-        <v>900.0224888470375</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C43" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D43" t="n">
-        <v>58.47653881167415</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E43" t="n">
-        <v>58.47653881167415</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F43" t="n">
-        <v>58.47653881167415</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G43" t="n">
         <v>40.46784683920976</v>
@@ -7596,25 +7596,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S43" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="T43" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="U43" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="V43" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="W43" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X43" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>196.3012649027521</v>
+        <v>1320.026536942302</v>
       </c>
       <c r="C44" t="n">
-        <v>196.3012649027521</v>
+        <v>1320.026536942302</v>
       </c>
       <c r="D44" t="n">
-        <v>196.3012649027521</v>
+        <v>1320.026536942302</v>
       </c>
       <c r="E44" t="n">
-        <v>196.3012649027521</v>
+        <v>934.2382843440578</v>
       </c>
       <c r="F44" t="n">
-        <v>196.3012649027521</v>
+        <v>523.2523795544503</v>
       </c>
       <c r="G44" t="n">
-        <v>40.46784683920976</v>
+        <v>104.6997798381651</v>
       </c>
       <c r="H44" t="n">
-        <v>40.46784683920976</v>
+        <v>104.6997798381651</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7678,22 +7678,22 @@
         <v>1931.377971238402</v>
       </c>
       <c r="T44" t="n">
-        <v>1931.377971238402</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U44" t="n">
-        <v>1677.569082547336</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="V44" t="n">
-        <v>1346.506195203765</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="W44" t="n">
-        <v>1346.506195203765</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="X44" t="n">
-        <v>973.0404369426856</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="Y44" t="n">
-        <v>582.9011049668738</v>
+        <v>1320.026536942302</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>486.8648558465823</v>
+        <v>526.0278428809645</v>
       </c>
       <c r="C45" t="n">
-        <v>486.8648558465823</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="D45" t="n">
-        <v>337.930446185331</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="E45" t="n">
-        <v>178.6929911798755</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="F45" t="n">
-        <v>178.6929911798755</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G45" t="n">
-        <v>40.46784683920976</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H45" t="n">
         <v>40.46784683920976</v>
@@ -7730,49 +7730,49 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>245.8568488424076</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L45" t="n">
-        <v>583.4321048996659</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M45" t="n">
-        <v>773.3516022495343</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O45" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P45" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R45" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S45" t="n">
-        <v>1789.594856919893</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T45" t="n">
-        <v>1589.446511881749</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U45" t="n">
-        <v>1560.081456797081</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V45" t="n">
-        <v>1324.929348565339</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W45" t="n">
-        <v>1070.691991837137</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X45" t="n">
-        <v>862.8404916316042</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y45" t="n">
-        <v>655.0801928666503</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="V46" t="n">
-        <v>329.8850168761704</v>
+        <v>208.822331825627</v>
       </c>
       <c r="W46" t="n">
         <v>40.46784683920976</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>354.6541654994895</v>
+        <v>277.3705002792437</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,13 +9011,13 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>137.5742284867205</v>
       </c>
       <c r="N15" t="n">
-        <v>374.9186269287976</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>149.0021003118939</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>217.2853909287125</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>195.2920992522434</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>354.6541654994895</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>65.70899713691583</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>308.2107882314576</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.53961213657043</v>
+        <v>79.53961213657044</v>
       </c>
       <c r="K27" t="n">
-        <v>57.0015986255101</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>193.88260573168</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.9610011602126</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>79.53961213657043</v>
       </c>
       <c r="K33" t="n">
-        <v>57.0015986255101</v>
+        <v>139.8850741043213</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.9610011602126</v>
+        <v>76.07752568140141</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657043</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.8850741043213</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>308.2107882314576</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>57.0015986255101</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>88.73097111018623</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>112.4095779563741</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>147.3311825278419</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.07752568140141</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>139.885074104321</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>207.1251387872948</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>141.8841621389553</v>
+        <v>55.3580723357268</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>296.8154002296655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22880,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>137.7432540233893</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>265.3359907678426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>46.51182223983591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>116.017219326629</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>210.9974473970012</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>167.6213053750088</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110.8454466417426</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>111.5079271034444</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037955</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>74.09492542542328</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>135.1499631682117</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>153.551289182031</v>
@@ -23442,7 +23442,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>215.0316390106966</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>89.1222135290781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.2661701862134</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>79.58876641031583</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>120.7258476109578</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
         <v>86.80307722268739</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037955</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
         <v>225.9364262421938</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23679,7 +23679,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206869</v>
       </c>
       <c r="T16" t="n">
         <v>227.6757534850358</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>361.1712585731958</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.1619485273195</v>
+        <v>259.2716050111774</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I17" t="n">
         <v>205.0481221176458</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23791,7 +23791,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>106.421864064234</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037955</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>79.48699210852432</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23916,7 +23916,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>47.78481791206869</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
         <v>227.6757534850358</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>120.2661701862135</v>
       </c>
       <c r="U20" t="n">
-        <v>8.095732519776618</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24068,7 +24068,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>135.3016522675003</v>
+        <v>216.9760939142296</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.5495897973191</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>161.6656840978772</v>
@@ -24153,7 +24153,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3812856695756</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24226,7 +24226,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
-        <v>174.4037110746249</v>
+        <v>20.52334198201336</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.38768972653259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.322678831819815</v>
       </c>
       <c r="I24" t="n">
         <v>72.16022720352242</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.5639290936303</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>167.571272790944</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>142.8287537878153</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.01734149371097</v>
+        <v>51.01734149371098</v>
       </c>
       <c r="R25" t="n">
         <v>158.4218578960072</v>
       </c>
       <c r="S25" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1522977307185</v>
+        <v>148.3830781134497</v>
       </c>
       <c r="U25" t="n">
-        <v>119.852058200038</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>78.66318391248888</v>
       </c>
       <c r="H26" t="n">
-        <v>191.9631265384128</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I26" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>27.01995205393567</v>
+        <v>3.668476300554346</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.01734149371097</v>
+        <v>51.01734149371098</v>
       </c>
       <c r="R28" t="n">
         <v>158.4218578960072</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.1522977307186</v>
       </c>
       <c r="U28" t="n">
-        <v>276.1836148136311</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>119.852058200038</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
-        <v>2.638218813826256</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>350.7303203182362</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>48.85438163892184</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>46.07643540114415</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.571272790944</v>
@@ -24894,13 +24894,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V31" t="n">
-        <v>91.02557758578536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>327.1674416331701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>301.4153355779326</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>146.3123500344351</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.8428928972591</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3842949358346</v>
+        <v>85.25758226660129</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>146.5738198891662</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H34" t="n">
         <v>158.4955995708086</v>
@@ -25131,13 +25131,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I35" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>143.8883875039478</v>
       </c>
       <c r="V35" t="n">
-        <v>232.1108298977486</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>19.57805203753385</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>218.4725772379576</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>6.459207052901348</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H37" t="n">
         <v>158.4955995708086</v>
@@ -25368,13 +25368,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.8924352648517</v>
@@ -25444,13 +25444,13 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9999812970856</v>
+        <v>215.0472599946389</v>
       </c>
       <c r="U38" t="n">
-        <v>161.50673484394</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.6767576875067931</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>142.6654127946184</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2961362709901</v>
+        <v>59.48135759416553</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.14057528114267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>193.1105084141623</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>329.8924352648517</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.08908024906333</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4004677732277</v>
+        <v>83.69252914210409</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.5597163454925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>149.7426677382043</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H43" t="n">
         <v>158.4955995708086</v>
@@ -25836,7 +25836,7 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S43" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>226.1522977307185</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>50.25817914851348</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>260.0919898362154</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I44" t="n">
-        <v>174.4037110746249</v>
+        <v>110.8140974056591</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>91.91884863822887</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>72.16022720352242</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>196.8370417401832</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>85.69356525287589</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>119.852058200038</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459739.8942858926</v>
+        <v>459739.8942858924</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459739.8942858926</v>
+        <v>459739.8942858924</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>621777.3384968117</v>
+        <v>621777.3384968116</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621777.3384968115</v>
+        <v>621777.3384968116</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621777.3384968115</v>
+        <v>621777.3384968117</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621777.3384968116</v>
+        <v>621777.3384968115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621777.3384968116</v>
+        <v>621777.3384968115</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="E2" t="n">
         <v>177181.8331056511</v>
@@ -26337,7 +26337,7 @@
         <v>241782.0775782848</v>
       </c>
       <c r="J2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="K2" t="n">
         <v>241782.0775782847</v>
@@ -26346,7 +26346,7 @@
         <v>241782.0775782848</v>
       </c>
       <c r="M2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="N2" t="n">
         <v>241782.0775782847</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923568</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>17705.32304873377</v>
       </c>
       <c r="O4" t="n">
-        <v>17705.32304873378</v>
+        <v>17705.32304873377</v>
       </c>
       <c r="P4" t="n">
         <v>17705.32304873377</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
         <v>35829.43444762748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7977.271975001653</v>
+        <v>18973.48153303813</v>
       </c>
       <c r="C6" t="n">
-        <v>88746.70350654944</v>
+        <v>99742.91306458578</v>
       </c>
       <c r="D6" t="n">
-        <v>88746.70350654935</v>
+        <v>99742.91306458575</v>
       </c>
       <c r="E6" t="n">
-        <v>92340.37092864492</v>
+        <v>102840.628260837</v>
       </c>
       <c r="F6" t="n">
-        <v>130969.2520578806</v>
+        <v>141469.5093900727</v>
       </c>
       <c r="G6" t="n">
-        <v>130969.2520578805</v>
+        <v>141469.5093900727</v>
       </c>
       <c r="H6" t="n">
-        <v>130969.2520578805</v>
+        <v>141469.5093900726</v>
       </c>
       <c r="I6" t="n">
-        <v>-30106.81047479995</v>
+        <v>-22513.56414387645</v>
       </c>
       <c r="J6" t="n">
-        <v>116750.4371151244</v>
+        <v>124343.683446048</v>
       </c>
       <c r="K6" t="n">
-        <v>179810.3797142306</v>
+        <v>187403.6260451542</v>
       </c>
       <c r="L6" t="n">
-        <v>179810.3797142307</v>
+        <v>187403.6260451543</v>
       </c>
       <c r="M6" t="n">
-        <v>171052.796719017</v>
+        <v>178646.0430499406</v>
       </c>
       <c r="N6" t="n">
-        <v>179810.3797142306</v>
+        <v>187403.6260451542</v>
       </c>
       <c r="O6" t="n">
-        <v>179810.3797142307</v>
+        <v>187403.6260451543</v>
       </c>
       <c r="P6" t="n">
-        <v>179810.3797142307</v>
+        <v>187403.6260451543</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912535</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912537</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912537</v>
+        <v>35.02126071912531</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912531</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581683</v>
@@ -26801,13 +26801,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
         <v>505.8480854901219</v>
@@ -26828,7 +26828,7 @@
         <v>505.8480854901219</v>
       </c>
       <c r="O4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="P4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912535</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877664</v>
+        <v>229.6915717877665</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760122</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.908887208846</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677234</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081219</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
         <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870384</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847514</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626982</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
         <v>0.01126311902524633</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132623</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520193</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>2.59355562872768</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779993</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
         <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>19.5917522583341</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164381</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263573</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0631530931000621</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623708</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227323</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174391</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894689</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948824</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394056</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179691</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938417</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587928</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457198</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155793</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466302</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760126</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884601</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470705</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677235</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840337</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.7213605708122</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411508</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796965</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870389</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847516</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626986</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524634</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132627</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520197</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727681</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779998</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335886</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358775</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192332</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833411</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689051</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650265</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164386</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263575</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504678</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497756</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00495583878100831</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006213</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623711</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227324</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174393</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170854</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894694</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948831</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394061</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179696</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938421</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587931</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390066</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025628</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.26983594324572</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094303</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760125</v>
+        <v>5.427767452760116</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>17.908887208846</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470704</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677235</v>
+        <v>24.72131435677231</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840336</v>
+        <v>25.12133106840333</v>
       </c>
       <c r="O17" t="n">
-        <v>23.7213605708122</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411508</v>
+        <v>20.24563243411505</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870388</v>
+        <v>8.843836255870373</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847516</v>
+        <v>3.20822905984751</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626985</v>
+        <v>0.6163037941626975</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524634</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132626</v>
+        <v>0.07532874947132613</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520195</v>
+        <v>0.7275171330520184</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727681</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779997</v>
+        <v>7.116914878779985</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335886</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358775</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192332</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N18" t="n">
-        <v>19.5917522583341</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689051</v>
+        <v>17.92262575689048</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164384</v>
+        <v>9.615648792164368</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263574</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504678</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497754</v>
+        <v>0.303627722649775</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008308</v>
+        <v>0.0049558387810083</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006213</v>
+        <v>0.06315309310006202</v>
       </c>
       <c r="H19" t="n">
-        <v>0.561488409562371</v>
+        <v>0.56148840956237</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227324</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174392</v>
+        <v>4.464923682174385</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170853</v>
+        <v>7.337241180170841</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894692</v>
+        <v>9.389142586894678</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948829</v>
+        <v>9.899534402948813</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394059</v>
+        <v>9.664145601394043</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179694</v>
+        <v>8.926402650179678</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938421</v>
+        <v>7.638079550938408</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.28821036858793</v>
+        <v>5.288210368587921</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390065</v>
+        <v>2.839592713390061</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025628</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457199</v>
+        <v>0.2698359432457195</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094302</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760116</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677231</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840333</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411505</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870373</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847513</v>
+        <v>3.20822905984751</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626975</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132613</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520184</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779985</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689048</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164368</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.303627722649775</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.0049558387810083</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.56148840956237</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J22" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174385</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170841</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894678</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948813</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394043</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179678</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938408</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587921</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390061</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457195</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127361</v>
       </c>
       <c r="H23" t="n">
         <v>9.582366850915436</v>
@@ -32709,7 +32709,7 @@
         <v>36.07217849578105</v>
       </c>
       <c r="J23" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683603</v>
       </c>
       <c r="K23" t="n">
         <v>119.0199435920552</v>
@@ -32718,7 +32718,7 @@
         <v>147.65476448928</v>
       </c>
       <c r="M23" t="n">
-        <v>164.2943755216215</v>
+        <v>164.2943755216214</v>
       </c>
       <c r="N23" t="n">
         <v>166.9528302820427</v>
@@ -32733,16 +32733,16 @@
         <v>101.0411637516704</v>
       </c>
       <c r="R23" t="n">
-        <v>58.77489092628509</v>
+        <v>58.77489092628508</v>
       </c>
       <c r="S23" t="n">
-        <v>21.32143875164025</v>
+        <v>21.32143875164024</v>
       </c>
       <c r="T23" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045754</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.07485310368101887</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.5006242659515318</v>
       </c>
       <c r="H24" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268742</v>
       </c>
       <c r="I24" t="n">
-        <v>17.23640564789266</v>
+        <v>17.23640564789265</v>
       </c>
       <c r="J24" t="n">
-        <v>47.29801453009627</v>
+        <v>47.29801453009626</v>
       </c>
       <c r="K24" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884888</v>
       </c>
       <c r="L24" t="n">
         <v>108.6991416049587</v>
@@ -32806,22 +32806,22 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P24" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209558</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.90424840462011</v>
+        <v>63.9042484046201</v>
       </c>
       <c r="R24" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828897</v>
       </c>
       <c r="S24" t="n">
         <v>9.298876168003227</v>
       </c>
       <c r="T24" t="n">
-        <v>2.017867107059025</v>
+        <v>2.017867107059024</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049552</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147296</v>
       </c>
       <c r="H25" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630962</v>
       </c>
       <c r="I25" t="n">
         <v>12.62172113944296</v>
@@ -32870,31 +32870,31 @@
         <v>29.67325432329138</v>
       </c>
       <c r="K25" t="n">
-        <v>48.76227211671131</v>
+        <v>48.7622721167113</v>
       </c>
       <c r="L25" t="n">
-        <v>62.39892004668991</v>
+        <v>62.3989200466899</v>
       </c>
       <c r="M25" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505892</v>
       </c>
       <c r="N25" t="n">
-        <v>64.22655137250409</v>
+        <v>64.22655137250408</v>
       </c>
       <c r="O25" t="n">
         <v>59.32361556108199</v>
       </c>
       <c r="P25" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378146</v>
       </c>
       <c r="Q25" t="n">
         <v>35.14470175798341</v>
       </c>
       <c r="R25" t="n">
-        <v>18.8715334811623</v>
+        <v>18.87153348116229</v>
       </c>
       <c r="S25" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506695</v>
       </c>
       <c r="T25" t="n">
         <v>1.793291697562935</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127361</v>
       </c>
       <c r="H26" t="n">
         <v>9.582366850915436</v>
@@ -32946,7 +32946,7 @@
         <v>36.07217849578105</v>
       </c>
       <c r="J26" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683603</v>
       </c>
       <c r="K26" t="n">
         <v>119.0199435920552</v>
@@ -32955,7 +32955,7 @@
         <v>147.65476448928</v>
       </c>
       <c r="M26" t="n">
-        <v>164.2943755216215</v>
+        <v>164.2943755216214</v>
       </c>
       <c r="N26" t="n">
         <v>166.9528302820427</v>
@@ -32970,16 +32970,16 @@
         <v>101.0411637516704</v>
       </c>
       <c r="R26" t="n">
-        <v>58.77489092628509</v>
+        <v>58.77489092628508</v>
       </c>
       <c r="S26" t="n">
-        <v>21.32143875164025</v>
+        <v>21.32143875164024</v>
       </c>
       <c r="T26" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045754</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.07485310368101887</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.5006242659515318</v>
       </c>
       <c r="H27" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268742</v>
       </c>
       <c r="I27" t="n">
-        <v>17.23640564789266</v>
+        <v>17.23640564789265</v>
       </c>
       <c r="J27" t="n">
-        <v>47.29801453009627</v>
+        <v>47.29801453009626</v>
       </c>
       <c r="K27" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884888</v>
       </c>
       <c r="L27" t="n">
         <v>108.6991416049587</v>
@@ -33043,22 +33043,22 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P27" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209558</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.90424840462011</v>
+        <v>63.9042484046201</v>
       </c>
       <c r="R27" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828897</v>
       </c>
       <c r="S27" t="n">
         <v>9.298876168003227</v>
       </c>
       <c r="T27" t="n">
-        <v>2.017867107059025</v>
+        <v>2.017867107059024</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049552</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147296</v>
       </c>
       <c r="H28" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630962</v>
       </c>
       <c r="I28" t="n">
         <v>12.62172113944296</v>
@@ -33107,31 +33107,31 @@
         <v>29.67325432329138</v>
       </c>
       <c r="K28" t="n">
-        <v>48.76227211671131</v>
+        <v>48.7622721167113</v>
       </c>
       <c r="L28" t="n">
-        <v>62.39892004668991</v>
+        <v>62.3989200466899</v>
       </c>
       <c r="M28" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505892</v>
       </c>
       <c r="N28" t="n">
-        <v>64.22655137250409</v>
+        <v>64.22655137250408</v>
       </c>
       <c r="O28" t="n">
         <v>59.32361556108199</v>
       </c>
       <c r="P28" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378146</v>
       </c>
       <c r="Q28" t="n">
         <v>35.14470175798341</v>
       </c>
       <c r="R28" t="n">
-        <v>18.8715334811623</v>
+        <v>18.87153348116229</v>
       </c>
       <c r="S28" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506695</v>
       </c>
       <c r="T28" t="n">
         <v>1.793291697562935</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
@@ -34146,22 +34146,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O41" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P41" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R41" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S41" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T41" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U41" t="n">
         <v>0.07485310368101888</v>
@@ -34213,7 +34213,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K42" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L42" t="n">
         <v>108.6991416049587</v>
@@ -34228,7 +34228,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P42" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q42" t="n">
         <v>63.90424840462011</v>
@@ -34237,7 +34237,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S42" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T42" t="n">
         <v>2.017867107059025</v>
@@ -34286,16 +34286,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I43" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J43" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K43" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M43" t="n">
         <v>65.79091221505894</v>
@@ -34304,25 +34304,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O43" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P43" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R43" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T43" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424833</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522136</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
@@ -35497,16 +35497,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>231.6067186693945</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,10 +35573,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
         <v>53.79631798062265</v>
@@ -35585,7 +35585,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831905</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424844</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522141</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023555</v>
+        <v>14.52678165662551</v>
       </c>
       <c r="N15" t="n">
-        <v>263.1686671037984</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
         <v>269.1887005891756</v>
@@ -35746,7 +35746,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199197</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
-        <v>49.48341136478942</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
         <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421937</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831909</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.21292759342484</v>
+        <v>5.212927593424816</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.370323552522128</v>
       </c>
       <c r="K18" t="n">
-        <v>23.3246024308938</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>94.23794409861748</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M19" t="n">
-        <v>49.48341136478942</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421937</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831909</v>
+        <v>4.916638815831896</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424816</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522128</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L21" t="n">
-        <v>73.09363939595693</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,16 +36287,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O22" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831896</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222351</v>
       </c>
       <c r="K23" t="n">
         <v>223.0755051182394</v>
@@ -36372,13 +36372,13 @@
         <v>374.8866910974359</v>
       </c>
       <c r="O23" t="n">
-        <v>308.3507932514997</v>
+        <v>308.3507932514996</v>
       </c>
       <c r="P23" t="n">
         <v>225.1153358625897</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712562</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.55142320383841</v>
+        <v>46.5514232038384</v>
       </c>
       <c r="K24" t="n">
         <v>207.4636383870685</v>
       </c>
       <c r="L24" t="n">
-        <v>35.85375896200035</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M24" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>478.2046900964478</v>
+        <v>307.0731039843519</v>
       </c>
       <c r="O24" t="n">
         <v>370.3773228808498</v>
@@ -36457,7 +36457,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082845</v>
       </c>
       <c r="L25" t="n">
         <v>89.98894530700605</v>
@@ -36533,7 +36533,7 @@
         <v>83.90874347512167</v>
       </c>
       <c r="P25" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867495</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222351</v>
       </c>
       <c r="K26" t="n">
         <v>223.0755051182394</v>
@@ -36609,13 +36609,13 @@
         <v>374.8866910974359</v>
       </c>
       <c r="O26" t="n">
-        <v>308.3507932514997</v>
+        <v>308.3507932514996</v>
       </c>
       <c r="P26" t="n">
         <v>225.1153358625897</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712562</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L27" t="n">
         <v>340.9851071285437</v>
@@ -36691,10 +36691,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P27" t="n">
-        <v>280.0856388177025</v>
+        <v>155.5054759094453</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88347547881122</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082845</v>
       </c>
       <c r="L28" t="n">
         <v>89.98894530700605</v>
@@ -36770,7 +36770,7 @@
         <v>83.90874347512167</v>
       </c>
       <c r="P28" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867495</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>82.88347547881116</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37168,7 +37168,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.88347547881122</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881116</v>
       </c>
       <c r="L36" t="n">
         <v>340.9851071285437</v>
@@ -37396,7 +37396,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>307.0731039843519</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37624,7 +37624,7 @@
         <v>46.55142320383841</v>
       </c>
       <c r="K39" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37636,13 +37636,13 @@
         <v>478.2046900964478</v>
       </c>
       <c r="O39" t="n">
-        <v>65.24597471430647</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P39" t="n">
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.9997620544477</v>
+        <v>36.33205227497272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M41" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N41" t="n">
         <v>374.8866910974359</v>
@@ -37800,7 +37800,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37876,10 +37876,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P42" t="n">
-        <v>108.9540527056073</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881092</v>
       </c>
       <c r="L45" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M45" t="n">
-        <v>191.8378761109782</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
         <v>478.2046900964478</v>
@@ -38116,7 +38116,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
